--- a/output/fit_clients/fit_round_212.xlsx
+++ b/output/fit_clients/fit_round_212.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2045400439.732747</v>
+        <v>2268324115.319494</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09176215286319635</v>
+        <v>0.0995758566889455</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04100721805419651</v>
+        <v>0.03957129912981085</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1022700221.635779</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2389160915.236052</v>
+        <v>2104209722.247146</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1305796476761394</v>
+        <v>0.1228028630666661</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04930570418693398</v>
+        <v>0.03615612575497914</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1194580557.928443</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4553257603.971172</v>
+        <v>4209265437.522041</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1481428342835962</v>
+        <v>0.1024360128303855</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03467597996904382</v>
+        <v>0.02788144778144616</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>77</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2276628855.337202</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3353277907.515879</v>
+        <v>3239514042.804289</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08959434985121612</v>
+        <v>0.07884040546741526</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03573257679498953</v>
+        <v>0.0498318984935807</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>79</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1676639000.242755</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2357100828.455536</v>
+        <v>2089674192.600805</v>
       </c>
       <c r="F6" t="n">
-        <v>0.133723114376418</v>
+        <v>0.0982027462314284</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0397047007152944</v>
+        <v>0.03898220289116214</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>37</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1178550405.160013</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2440672118.480717</v>
+        <v>2737696534.456071</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08375342060380225</v>
+        <v>0.0864021734240996</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04825586692210522</v>
+        <v>0.03498300571436025</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>64</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1220336077.966926</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3173600291.724822</v>
+        <v>3438720453.105835</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1672154009531867</v>
+        <v>0.1449973073463092</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02828933509555868</v>
+        <v>0.03096154784567057</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>67</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1586800221.103423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2282848390.745723</v>
+        <v>2091813567.854529</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1858741773581327</v>
+        <v>0.1473813445458624</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02371660759003668</v>
+        <v>0.03475412053523006</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1141424182.717228</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3822723816.933783</v>
+        <v>4343857512.172333</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1310410504416417</v>
+        <v>0.1924342745973574</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04091686442307476</v>
+        <v>0.03755110362105654</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>89</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1911361916.594471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4186258091.159101</v>
+        <v>3892046219.297818</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1488936427041101</v>
+        <v>0.1544028295221243</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03480395548029068</v>
+        <v>0.03003623988769119</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>87</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2093129071.233322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2513431807.390178</v>
+        <v>2322460395.4836</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1261821189096403</v>
+        <v>0.1897376775611971</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05269724081079171</v>
+        <v>0.04300076068209584</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>74</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1256715877.114501</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5255286850.691988</v>
+        <v>5260363497.217186</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06623149030087083</v>
+        <v>0.07368155031431327</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0215254046058129</v>
+        <v>0.02881491251154089</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>71</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2627643416.499635</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3236403397.076231</v>
+        <v>3029317941.171957</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1737774266288923</v>
+        <v>0.1324304802526853</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03470661922327382</v>
+        <v>0.03116660461973724</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>70</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1618201715.832105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1429930202.741061</v>
+        <v>1359945536.189633</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1090119654060512</v>
+        <v>0.1092255844644378</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0435911622441616</v>
+        <v>0.04039251692114347</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>714965170.9678934</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2557445729.276822</v>
+        <v>2375602062.54266</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07244707639457881</v>
+        <v>0.09669255754902605</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03757509505123321</v>
+        <v>0.03219263948996429</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>34</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1278722890.303154</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3772152357.851587</v>
+        <v>5084211701.75974</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1287943997912798</v>
+        <v>0.1364571989477002</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05187311869760525</v>
+        <v>0.03709644522134026</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>62</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1886076224.725199</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2648944125.510732</v>
+        <v>3234606217.956954</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1414937681523175</v>
+        <v>0.1384009663321652</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02942054517493486</v>
+        <v>0.03382185104634461</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>70</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1324472118.466567</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1188936969.383644</v>
+        <v>874354192.2834752</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1485802329437959</v>
+        <v>0.1702368537454198</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0196343141113303</v>
+        <v>0.02521552700984124</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>594468559.8842907</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1910390594.056269</v>
+        <v>2099869761.307058</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1484662659586506</v>
+        <v>0.1223259553593344</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02515582065398106</v>
+        <v>0.02786762211092886</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>34</v>
-      </c>
-      <c r="J20" t="n">
-        <v>955195332.909556</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2120037471.686124</v>
+        <v>2204289784.710623</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07379787762956357</v>
+        <v>0.09850246354004856</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03036525337638256</v>
+        <v>0.04438377795217207</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>16</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1060018760.296254</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2984090528.879098</v>
+        <v>2995109067.096578</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1217181768710682</v>
+        <v>0.1426654446031409</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05586996646197828</v>
+        <v>0.0365792904765143</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>59</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1492045326.909975</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1004833337.421878</v>
+        <v>1167898083.127743</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1365452408613562</v>
+        <v>0.1543747214621428</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04935709302877935</v>
+        <v>0.04758724469436736</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>502416738.0646937</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3628273891.353576</v>
+        <v>3925419473.380914</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1210300327712448</v>
+        <v>0.1093090802741586</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02587204069563159</v>
+        <v>0.02688797454016691</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>62</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1814136938.659042</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1037823032.534092</v>
+        <v>940287031.0038296</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1142569650662272</v>
+        <v>0.07644669148947632</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02254870303038004</v>
+        <v>0.02815303081960897</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>518911571.5481825</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1332469979.453377</v>
+        <v>1319135239.518657</v>
       </c>
       <c r="F26" t="n">
-        <v>0.11297565973977</v>
+        <v>0.09835106711295641</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02847912619008719</v>
+        <v>0.03769323413076264</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>666235043.2187966</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3499268489.510529</v>
+        <v>3655032913.448024</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1088780614089779</v>
+        <v>0.1524541451102592</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02579279319119725</v>
+        <v>0.01654323099930435</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>48</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1749634279.748984</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3159565552.413314</v>
+        <v>3174521616.772079</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09781896539545933</v>
+        <v>0.09574231720882846</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04990415578273237</v>
+        <v>0.04094307101933995</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>68</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1579782801.288689</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5642658106.861306</v>
+        <v>5890299056.107615</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1302736452300344</v>
+        <v>0.1359674851487754</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03873357980014666</v>
+        <v>0.02890861790150459</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>94</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2821328956.448712</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2131289795.680502</v>
+        <v>1814415533.131535</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1250502247724138</v>
+        <v>0.1158095961155257</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03003801239784681</v>
+        <v>0.03552686355474033</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1065644950.220657</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1383743967.213243</v>
+        <v>1342498240.031745</v>
       </c>
       <c r="F31" t="n">
-        <v>0.105732885795738</v>
+        <v>0.09921715678306807</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04877777658079744</v>
+        <v>0.03269236410459305</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>691871891.8108304</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1260160092.459015</v>
+        <v>1815503827.524021</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08598673760655208</v>
+        <v>0.07414929265428209</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02495116728776953</v>
+        <v>0.0374176016951189</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>630080064.8612807</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2296204092.015674</v>
+        <v>2397980640.307698</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1385761956533148</v>
+        <v>0.1842936845422275</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05608581936520381</v>
+        <v>0.0407538583352824</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>64</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1148102101.557157</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1023241696.916469</v>
+        <v>1519785805.512704</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1040890149554885</v>
+        <v>0.1049680165208697</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01765205911833047</v>
+        <v>0.02555932513238501</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>511620882.4917949</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1352103283.938123</v>
+        <v>1282335985.572509</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07431434465884537</v>
+        <v>0.08563213763217532</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04230520666284005</v>
+        <v>0.04306092595432262</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>676051583.3116392</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3179294886.901822</v>
+        <v>2431648434.66565</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1501703991764861</v>
+        <v>0.1108894555206427</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01800621257542745</v>
+        <v>0.02650979809215856</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>53</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1589647411.006455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2132499618.839615</v>
+        <v>2501824390.501294</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0812403222797754</v>
+        <v>0.09767173275653374</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02912903515116661</v>
+        <v>0.03362663614452109</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>55</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1066249854.946152</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2045062832.885185</v>
+        <v>1567950531.975557</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08829190069979721</v>
+        <v>0.08053355222542063</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0336412586228224</v>
+        <v>0.03322499216854088</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1022531388.686401</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2124239470.171832</v>
+        <v>1438029989.975793</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1385843757542947</v>
+        <v>0.1768686501074419</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02879330238365619</v>
+        <v>0.02582288229237999</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1062119710.739941</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1190318546.677218</v>
+        <v>1147979474.830331</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1118707440074287</v>
+        <v>0.1178667473108507</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0568217609945689</v>
+        <v>0.05111099481806518</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>595159317.0466219</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1891442669.689688</v>
+        <v>2637624115.796939</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1361569028490002</v>
+        <v>0.1348454981968554</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03738842949862316</v>
+        <v>0.0296040828151085</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>53</v>
-      </c>
-      <c r="J41" t="n">
-        <v>945721419.6484635</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3793376347.569178</v>
+        <v>3029811360.801762</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1127490098865853</v>
+        <v>0.1190901955341094</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04553017559909175</v>
+        <v>0.03527534380346298</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>73</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1896688188.820918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2588619057.91292</v>
+        <v>2460697842.179711</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1861519969774832</v>
+        <v>0.1299003114002147</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02579610326274736</v>
+        <v>0.02300924444796312</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>71</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1294309568.688923</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1631603418.020084</v>
+        <v>2154165282.51131</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07823629713612687</v>
+        <v>0.0823122627861369</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03068729228915882</v>
+        <v>0.02644288027773117</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>815801741.8227659</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2380711057.285126</v>
+        <v>2208928815.722213</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1529478489772144</v>
+        <v>0.1270375364648456</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04899817884742837</v>
+        <v>0.03542705161318731</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1190355557.890743</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4049033617.171796</v>
+        <v>4689800054.904525</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1125392322029943</v>
+        <v>0.1517111134499056</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05368844997662473</v>
+        <v>0.05702883786171824</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>75</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2024516780.901909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4666389853.400332</v>
+        <v>4302134901.152396</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1455090499864387</v>
+        <v>0.2018734298594663</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05621942647121601</v>
+        <v>0.05242842885323096</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>57</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2333194963.567318</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3509991176.957601</v>
+        <v>3660009800.617773</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07815049814000281</v>
+        <v>0.07865995141713043</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03264316977327708</v>
+        <v>0.02975336205089042</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>75</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1754995651.29283</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1780755063.535404</v>
+        <v>1507768350.028292</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1382426329128672</v>
+        <v>0.132082245630193</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02836576497014571</v>
+        <v>0.03060545145535306</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>890377520.1132895</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3276708984.980339</v>
+        <v>2539001155.954025</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1461965031789073</v>
+        <v>0.1342979640834734</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03377041202633754</v>
+        <v>0.03933251594474623</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>72</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1638354532.604774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1060791402.302589</v>
+        <v>1122486933.523202</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1745957316170659</v>
+        <v>0.1606167655306718</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04612755866494454</v>
+        <v>0.04798611675949132</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>530395775.2327641</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4590485845.428262</v>
+        <v>3715379480.753718</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1142699978421874</v>
+        <v>0.09732334566493368</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04365681352334317</v>
+        <v>0.0479209310715716</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>87</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2295242944.420659</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2594050454.270178</v>
+        <v>2411835611.469666</v>
       </c>
       <c r="F53" t="n">
-        <v>0.202110124913692</v>
+        <v>0.2044285384955353</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0294775246189866</v>
+        <v>0.0220164503022005</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>61</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1297025287.601182</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3990482513.125044</v>
+        <v>4642263641.106627</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1462712141665062</v>
+        <v>0.1586827539270016</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03538689693169483</v>
+        <v>0.03570237583280057</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>69</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1995241319.869425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4509191765.022345</v>
+        <v>4276161474.166836</v>
       </c>
       <c r="F55" t="n">
-        <v>0.215262988625856</v>
+        <v>0.1368224621365123</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02360093902989748</v>
+        <v>0.02667584826790662</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>59</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2254595879.855788</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1658763379.810455</v>
+        <v>1371452116.933514</v>
       </c>
       <c r="F56" t="n">
-        <v>0.109731901929128</v>
+        <v>0.1218115834806542</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04401941423325995</v>
+        <v>0.03781410778996383</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>829381708.6398004</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2970368003.181823</v>
+        <v>4427785801.879128</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1576816514904943</v>
+        <v>0.1773785819041855</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0216013132858183</v>
+        <v>0.01858957986123306</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>68</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1485184003.489047</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1770343705.366335</v>
+        <v>1905220346.10335</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1360711950774885</v>
+        <v>0.122575209050288</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02764470717835924</v>
+        <v>0.03861432351918354</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>885171859.1286916</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4283155351.848349</v>
+        <v>4714110157.622183</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08247723858690471</v>
+        <v>0.109404624413058</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04298750069674467</v>
+        <v>0.03385546585931981</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>57</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2141577638.203477</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2682942988.13605</v>
+        <v>2847525957.497979</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1651782132509963</v>
+        <v>0.1532989344783842</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03246222441785716</v>
+        <v>0.02256134229980127</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>68</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1341471531.139291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2700926017.995606</v>
+        <v>2523929193.050851</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1441271671062155</v>
+        <v>0.1806801203605642</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02671596240665572</v>
+        <v>0.02666182790386967</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>73</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1350463017.654508</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1543948993.816112</v>
+        <v>1401482272.443098</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1939908538459342</v>
+        <v>0.193335957117295</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03955927467262843</v>
+        <v>0.03686412114511994</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>771974486.5628849</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4735131686.595914</v>
+        <v>3584893086.823615</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09758250511669317</v>
+        <v>0.09119663594021396</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04216707263560816</v>
+        <v>0.03218360610856617</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>60</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2367565872.855113</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3668067114.532242</v>
+        <v>4941993537.35407</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1656618014966143</v>
+        <v>0.1421461165314869</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02217063715158391</v>
+        <v>0.02388000597109313</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>66</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1834033569.75857</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5081745141.693036</v>
+        <v>5316725316.56911</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1746829892962307</v>
+        <v>0.1367535989238243</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02558682467280445</v>
+        <v>0.02114537048276517</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>77</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2540872524.861897</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5093394881.208822</v>
+        <v>4236089467.485003</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1051718747615151</v>
+        <v>0.1238259833065079</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05104034702314478</v>
+        <v>0.05097309794672251</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>62</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2546697472.754618</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3204423285.315129</v>
+        <v>2501063021.241703</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09823584311100741</v>
+        <v>0.07398049813850496</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03368129566710491</v>
+        <v>0.04361031939493375</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>68</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1602211643.603532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5577244770.7946</v>
+        <v>5501344200.098853</v>
       </c>
       <c r="F68" t="n">
-        <v>0.102580752107072</v>
+        <v>0.105068748677421</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04229495234789514</v>
+        <v>0.03452606108080206</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>71</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2788622476.747217</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1721515038.667013</v>
+        <v>1705198570.038842</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1575623196988506</v>
+        <v>0.1525411509227535</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05507614668777649</v>
+        <v>0.05833975543091159</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>860757488.2407545</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2839724747.886549</v>
+        <v>3652363409.335863</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06815635696351779</v>
+        <v>0.1019730417776157</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04023647120786585</v>
+        <v>0.03708734596890468</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>61</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1419862340.44708</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4730681190.288009</v>
+        <v>3542310508.159957</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1198852869026472</v>
+        <v>0.1501161780156968</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03200122699859805</v>
+        <v>0.03368133700370095</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>77</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2365340680.727619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2183300030.030061</v>
+        <v>1533231162.664851</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07478405151767237</v>
+        <v>0.07755593632620311</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03283212950706565</v>
+        <v>0.04783896003882668</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1091649931.788516</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2516932460.826899</v>
+        <v>2441694139.020818</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07142729912802234</v>
+        <v>0.1105013290694352</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03707841598454889</v>
+        <v>0.03968527161317632</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>81</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1258466270.59868</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3566474794.205889</v>
+        <v>2461857834.370823</v>
       </c>
       <c r="F74" t="n">
-        <v>0.165316011269007</v>
+        <v>0.137319033020581</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0347094693077832</v>
+        <v>0.02418658073863022</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>72</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1783237413.533798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2140107125.031909</v>
+        <v>2445982987.903533</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1161110856252513</v>
+        <v>0.1434976312298765</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03460295046234212</v>
+        <v>0.03153522959469287</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1070053513.518373</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5303210054.108163</v>
+        <v>3411850392.087321</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1021170756075835</v>
+        <v>0.0837594339512245</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03251599318670336</v>
+        <v>0.02936552550772537</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2651605066.423975</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2006995745.652701</v>
+        <v>2201698699.263612</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1260649694349052</v>
+        <v>0.1262896363484833</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02379090714324684</v>
+        <v>0.01947302980646938</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1003497935.341798</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3177001229.154269</v>
+        <v>3792123039.882786</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08984829417137605</v>
+        <v>0.08292053406494022</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05008238874915576</v>
+        <v>0.04550440932050104</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>74</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1588500639.184529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1209750859.78936</v>
+        <v>1784901794.76612</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1361606571236808</v>
+        <v>0.1102795868473026</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04005170322629935</v>
+        <v>0.02936283837207576</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>604875413.3201165</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5598178641.014347</v>
+        <v>4465163715.402487</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0810687283068125</v>
+        <v>0.0996460254364431</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02334141144575201</v>
+        <v>0.03422128660549691</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>44</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2799089399.460716</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4619975724.943603</v>
+        <v>3447814213.688236</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1328703106238486</v>
+        <v>0.1082979205052688</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02744741398642939</v>
+        <v>0.02488725548856443</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>47</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2309987848.693613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5024761077.151831</v>
+        <v>3673586257.448895</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2148311464838185</v>
+        <v>0.1909941499512738</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0249303047105812</v>
+        <v>0.02078416565588561</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>77</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2512380521.099358</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1511763161.734516</v>
+        <v>1537937739.492678</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1167950949494538</v>
+        <v>0.107958207284999</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03334293705379687</v>
+        <v>0.03321012441963943</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>755881505.3918974</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1765790799.124618</v>
+        <v>2497707015.560482</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1077030987941898</v>
+        <v>0.09637310554485531</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04573918400752974</v>
+        <v>0.03995899641798176</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>882895438.8949186</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2657956047.523204</v>
+        <v>2990426567.458945</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1762324095790178</v>
+        <v>0.1554612941099471</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03577838532456009</v>
+        <v>0.03576743859011391</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>80</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1328978046.124467</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1904847902.079222</v>
+        <v>2536520796.780468</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1101989507675053</v>
+        <v>0.150564063470592</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02447591544903076</v>
+        <v>0.0217398243516516</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>27</v>
-      </c>
-      <c r="J86" t="n">
-        <v>952423965.4312859</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1046661776.98054</v>
+        <v>1364324348.477761</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1562183330723414</v>
+        <v>0.157357586565797</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02690494274500138</v>
+        <v>0.04421515837347787</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>523330904.7619515</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3450034276.445903</v>
+        <v>2378928360.232147</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1479912475837043</v>
+        <v>0.132104948192269</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03810028177906374</v>
+        <v>0.02824356696702495</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>83</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1725017213.121439</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2966724540.9945</v>
+        <v>3263883678.778675</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1118062385000513</v>
+        <v>0.1026381900252361</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03025661835903271</v>
+        <v>0.02906353467887059</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>73</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1483362311.024772</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1360196311.894465</v>
+        <v>1536494791.288641</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1029896654983125</v>
+        <v>0.1050590736474373</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04352692238225261</v>
+        <v>0.03484343753907484</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>680098109.0451696</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1637883120.985654</v>
+        <v>2071228211.504907</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1832910298607436</v>
+        <v>0.1786107799956667</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04451162020754816</v>
+        <v>0.0517955616793877</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>818941581.0131724</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2818638444.332309</v>
+        <v>2799215117.557871</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1028601642253953</v>
+        <v>0.08159487272623711</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03005253206076185</v>
+        <v>0.03189256686982218</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>54</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1409319230.163735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4248688001.287769</v>
+        <v>3830077940.114432</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1111904254419049</v>
+        <v>0.1118438021318677</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03841340028268793</v>
+        <v>0.04094351682884324</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>62</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2124343985.165496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2226774948.853522</v>
+        <v>2389969178.895533</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1471506541199669</v>
+        <v>0.1221252247054148</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02920677044919974</v>
+        <v>0.02958101779129918</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1113387502.288663</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2784182452.607897</v>
+        <v>2342037058.502141</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09345982445278263</v>
+        <v>0.1125302925627928</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04399718086042435</v>
+        <v>0.04599493154507798</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>51</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1392091241.695395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1953641851.1725</v>
+        <v>1553100162.573763</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1359330622702518</v>
+        <v>0.1249404727188286</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03696218902217192</v>
+        <v>0.03029949095628204</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>976820917.4904233</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4294108409.928756</v>
+        <v>4632238974.51632</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1496167490152916</v>
+        <v>0.1773143674583759</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02854700255622183</v>
+        <v>0.02879365478612221</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>70</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2147054284.976462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3054362647.463654</v>
+        <v>3740113455.640992</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1271171473399098</v>
+        <v>0.09427803987319036</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02522776042583346</v>
+        <v>0.02476889317943184</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>56</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1527181312.098308</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2601190838.39642</v>
+        <v>3406888438.146213</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1283536497698362</v>
+        <v>0.1088797435910221</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03050129448063183</v>
+        <v>0.02231785793841679</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>66</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1300595376.226322</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3201418388.005269</v>
+        <v>3353290116.874576</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1612353117026841</v>
+        <v>0.1645082627118435</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02706623862686988</v>
+        <v>0.02728889549433893</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>65</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1600709200.897082</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2935784580.557855</v>
+        <v>3177626979.289736</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1530738811547273</v>
+        <v>0.1798710153534868</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04988130228979595</v>
+        <v>0.04830761454550885</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>86</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1467892370.808815</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_212.xlsx
+++ b/output/fit_clients/fit_round_212.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2268324115.319494</v>
+        <v>1719496037.967215</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0995758566889455</v>
+        <v>0.08736696249959339</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03957129912981085</v>
+        <v>0.04236801849502357</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2104209722.247146</v>
+        <v>1853757976.373724</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1228028630666661</v>
+        <v>0.1698757966755279</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03615612575497914</v>
+        <v>0.03976966503218902</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4209265437.522041</v>
+        <v>4133329241.509549</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1024360128303855</v>
+        <v>0.1090320480253045</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02788144778144616</v>
+        <v>0.03008862800302955</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3239514042.804289</v>
+        <v>3012384831.962767</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07884040546741526</v>
+        <v>0.07576578786792021</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0498318984935807</v>
+        <v>0.03119736565134396</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2089674192.600805</v>
+        <v>2658153951.52983</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0982027462314284</v>
+        <v>0.106118355689155</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03898220289116214</v>
+        <v>0.04299966687157588</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2737696534.456071</v>
+        <v>2011374124.484781</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0864021734240996</v>
+        <v>0.08756821641401283</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03498300571436025</v>
+        <v>0.04475613988186312</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3438720453.105835</v>
+        <v>2430535374.719747</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1449973073463092</v>
+        <v>0.1655560057807975</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03096154784567057</v>
+        <v>0.02543744982634411</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2091813567.854529</v>
+        <v>1948760126.53819</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1473813445458624</v>
+        <v>0.1783809770874004</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03475412053523006</v>
+        <v>0.02984644548407873</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4343857512.172333</v>
+        <v>5128373948.68807</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1924342745973574</v>
+        <v>0.1552310436960511</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03755110362105654</v>
+        <v>0.0416124981429115</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3892046219.297818</v>
+        <v>3095721480.194846</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1544028295221243</v>
+        <v>0.1285858693015478</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03003623988769119</v>
+        <v>0.03564713491221363</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2322460395.4836</v>
+        <v>2241557792.399787</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1897376775611971</v>
+        <v>0.1403774603425724</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04300076068209584</v>
+        <v>0.04054794340935473</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5260363497.217186</v>
+        <v>4001636450.31017</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07368155031431327</v>
+        <v>0.07486213140606734</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02881491251154089</v>
+        <v>0.02192171808736183</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3029317941.171957</v>
+        <v>3763234062.261151</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1324304802526853</v>
+        <v>0.1574539238731884</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03116660461973724</v>
+        <v>0.03336213984390466</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1359945536.189633</v>
+        <v>1109775824.796798</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1092255844644378</v>
+        <v>0.09915216731735302</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04039251692114347</v>
+        <v>0.03249336992982867</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2375602062.54266</v>
+        <v>2246790916.947804</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09669255754902605</v>
+        <v>0.09130693095383208</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03219263948996429</v>
+        <v>0.0385169089220896</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5084211701.75974</v>
+        <v>3802019880.946286</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1364571989477002</v>
+        <v>0.1077177843499435</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03709644522134026</v>
+        <v>0.04512857541874548</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3234606217.956954</v>
+        <v>2642520240.606167</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1384009663321652</v>
+        <v>0.1580570150871838</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03382185104634461</v>
+        <v>0.03313159461935626</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>874354192.2834752</v>
+        <v>1327169918.513209</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1702368537454198</v>
+        <v>0.1803832905021641</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02521552700984124</v>
+        <v>0.02642165112714007</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2099869761.307058</v>
+        <v>1895319105.248447</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1223259553593344</v>
+        <v>0.1499211920333069</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02786762211092886</v>
+        <v>0.01950122089590849</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2204289784.710623</v>
+        <v>2406551869.749388</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09850246354004856</v>
+        <v>0.07036048016107253</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04438377795217207</v>
+        <v>0.04344847963020795</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2995109067.096578</v>
+        <v>3850024565.393838</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1426654446031409</v>
+        <v>0.1387622820452403</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0365792904765143</v>
+        <v>0.03580397232482965</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1167898083.127743</v>
+        <v>978082427.9702477</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1543747214621428</v>
+        <v>0.1851437150958837</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04758724469436736</v>
+        <v>0.04481453280304482</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3925419473.380914</v>
+        <v>4026196427.662994</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1093090802741586</v>
+        <v>0.13245352095212</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02688797454016691</v>
+        <v>0.02655397598723499</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>940287031.0038296</v>
+        <v>1134915366.535927</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07644669148947632</v>
+        <v>0.1098543206352268</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02815303081960897</v>
+        <v>0.01964181860113684</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1319135239.518657</v>
+        <v>940005482.3973798</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09835106711295641</v>
+        <v>0.09149542080675811</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03769323413076264</v>
+        <v>0.03746690509523502</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3655032913.448024</v>
+        <v>3635353889.281657</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1524541451102592</v>
+        <v>0.1580762028023502</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01654323099930435</v>
+        <v>0.02340428434634455</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3174521616.772079</v>
+        <v>2555773103.303342</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09574231720882846</v>
+        <v>0.1161508505086054</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04094307101933995</v>
+        <v>0.03931440690939814</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5890299056.107615</v>
+        <v>3814395456.101532</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1359674851487754</v>
+        <v>0.1158828836229214</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02890861790150459</v>
+        <v>0.04617317459869055</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1814415533.131535</v>
+        <v>1807300630.697004</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1158095961155257</v>
+        <v>0.1013431411536741</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03552686355474033</v>
+        <v>0.03182305807218245</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1342498240.031745</v>
+        <v>1022410646.181719</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09921715678306807</v>
+        <v>0.07241684281382127</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03269236410459305</v>
+        <v>0.03612004821687673</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1815503827.524021</v>
+        <v>1628720030.40725</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07414929265428209</v>
+        <v>0.1145566215048286</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0374176016951189</v>
+        <v>0.03422670873685786</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2397980640.307698</v>
+        <v>2985410945.951824</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1842936845422275</v>
+        <v>0.1790772147865647</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0407538583352824</v>
+        <v>0.05351333448914874</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1519785805.512704</v>
+        <v>1411373137.341579</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1049680165208697</v>
+        <v>0.07730176147605226</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02555932513238501</v>
+        <v>0.01756506955990611</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1282335985.572509</v>
+        <v>1332393352.642395</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08563213763217532</v>
+        <v>0.08851606054383968</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04306092595432262</v>
+        <v>0.03597603848668939</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2431648434.66565</v>
+        <v>2852253845.089434</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1108894555206427</v>
+        <v>0.1677910538207138</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02650979809215856</v>
+        <v>0.02713307706094838</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2501824390.501294</v>
+        <v>2777848622.797183</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09767173275653374</v>
+        <v>0.08765207070092845</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03362663614452109</v>
+        <v>0.04072848659058372</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1567950531.975557</v>
+        <v>1895029234.265461</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08053355222542063</v>
+        <v>0.09725567140556872</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03322499216854088</v>
+        <v>0.02805766620704517</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1438029989.975793</v>
+        <v>1407434193.445617</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1768686501074419</v>
+        <v>0.1750636748654484</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02582288229237999</v>
+        <v>0.02030214631426282</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1147979474.830331</v>
+        <v>1260297799.47145</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1178667473108507</v>
+        <v>0.1395207482571365</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05111099481806518</v>
+        <v>0.05422361750865971</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2637624115.796939</v>
+        <v>2909882623.906265</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1348454981968554</v>
+        <v>0.1071761154685682</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0296040828151085</v>
+        <v>0.03186247883002612</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3029811360.801762</v>
+        <v>2796740475.120169</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1190901955341094</v>
+        <v>0.1250425731420231</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03527534380346298</v>
+        <v>0.04221992791058585</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2460697842.179711</v>
+        <v>2574119653.92957</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1299003114002147</v>
+        <v>0.1361350708625033</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02300924444796312</v>
+        <v>0.01598413475624335</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2154165282.51131</v>
+        <v>2275322177.268898</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0823122627861369</v>
+        <v>0.06782449650868624</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02644288027773117</v>
+        <v>0.02267115424835812</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2208928815.722213</v>
+        <v>1708227313.535843</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1270375364648456</v>
+        <v>0.1687731743125468</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03542705161318731</v>
+        <v>0.054673152155147</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4689800054.904525</v>
+        <v>5599853010.121968</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1517111134499056</v>
+        <v>0.1193842844722272</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05702883786171824</v>
+        <v>0.04299668480645429</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4302134901.152396</v>
+        <v>3466482599.899914</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2018734298594663</v>
+        <v>0.1850855184468155</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05242842885323096</v>
+        <v>0.04144955841109643</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3660009800.617773</v>
+        <v>4269623745.798504</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07865995141713043</v>
+        <v>0.09862636240949983</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02975336205089042</v>
+        <v>0.03926679991790664</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1507768350.028292</v>
+        <v>1991888681.346696</v>
       </c>
       <c r="F49" t="n">
-        <v>0.132082245630193</v>
+        <v>0.1445510724574467</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03060545145535306</v>
+        <v>0.03134418716201504</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2539001155.954025</v>
+        <v>3812159844.097396</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1342979640834734</v>
+        <v>0.1288366776955063</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03933251594474623</v>
+        <v>0.03818219724663102</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1122486933.523202</v>
+        <v>1361057304.690204</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1606167655306718</v>
+        <v>0.1555259500294684</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04798611675949132</v>
+        <v>0.05324101910230072</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3715379480.753718</v>
+        <v>3389870310.219624</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09732334566493368</v>
+        <v>0.1006174774233313</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0479209310715716</v>
+        <v>0.04257362729210758</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2411835611.469666</v>
+        <v>2286328890.744642</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2044285384955353</v>
+        <v>0.150238251808087</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0220164503022005</v>
+        <v>0.03101312115840107</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4642263641.106627</v>
+        <v>4440488096.065993</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1586827539270016</v>
+        <v>0.1060730372085004</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03570237583280057</v>
+        <v>0.03983232845125768</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4276161474.166836</v>
+        <v>3129135511.280183</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1368224621365123</v>
+        <v>0.1535738880726376</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02667584826790662</v>
+        <v>0.02034149733418834</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1371452116.933514</v>
+        <v>1735467227.377262</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1218115834806542</v>
+        <v>0.1225322764639147</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03781410778996383</v>
+        <v>0.04388450542705772</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4427785801.879128</v>
+        <v>3475380608.209321</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1773785819041855</v>
+        <v>0.1200188391314013</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01858957986123306</v>
+        <v>0.02275419771084944</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1905220346.10335</v>
+        <v>1353488553.530133</v>
       </c>
       <c r="F58" t="n">
-        <v>0.122575209050288</v>
+        <v>0.1399912139043734</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03861432351918354</v>
+        <v>0.03580588849987257</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4714110157.622183</v>
+        <v>4025597992.982812</v>
       </c>
       <c r="F59" t="n">
-        <v>0.109404624413058</v>
+        <v>0.09809716955431681</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03385546585931981</v>
+        <v>0.0401411168529725</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2847525957.497979</v>
+        <v>3713551176.191206</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1532989344783842</v>
+        <v>0.1311136855760748</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02256134229980127</v>
+        <v>0.02654473447277069</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2523929193.050851</v>
+        <v>3083299713.981862</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1806801203605642</v>
+        <v>0.1746744156683009</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02666182790386967</v>
+        <v>0.03051241314355212</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1401482272.443098</v>
+        <v>1308190842.309828</v>
       </c>
       <c r="F62" t="n">
-        <v>0.193335957117295</v>
+        <v>0.1455355891850759</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03686412114511994</v>
+        <v>0.03828243945567207</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3584893086.823615</v>
+        <v>3920163877.649325</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09119663594021396</v>
+        <v>0.07062273976356656</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03218360610856617</v>
+        <v>0.04190883852585293</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4941993537.35407</v>
+        <v>4038930932.728026</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1421461165314869</v>
+        <v>0.1813787482941479</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02388000597109313</v>
+        <v>0.03343002272743777</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5316725316.56911</v>
+        <v>5088870170.031959</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1367535989238243</v>
+        <v>0.1528635503946231</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02114537048276517</v>
+        <v>0.02019566311439793</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4236089467.485003</v>
+        <v>4077992775.645539</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1238259833065079</v>
+        <v>0.1012539415383754</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05097309794672251</v>
+        <v>0.0366013296995877</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2501063021.241703</v>
+        <v>2113857948.286334</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07398049813850496</v>
+        <v>0.09403159421461836</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04361031939493375</v>
+        <v>0.0446808706295632</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5501344200.098853</v>
+        <v>5525504236.610884</v>
       </c>
       <c r="F68" t="n">
-        <v>0.105068748677421</v>
+        <v>0.1334548258010442</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03452606108080206</v>
+        <v>0.05094541807686434</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1705198570.038842</v>
+        <v>2423198778.328387</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1525411509227535</v>
+        <v>0.126690482457964</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05833975543091159</v>
+        <v>0.04252010659143503</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3652363409.335863</v>
+        <v>2542479156.183238</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1019730417776157</v>
+        <v>0.1027208132975347</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03708734596890468</v>
+        <v>0.0386057392230002</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3542310508.159957</v>
+        <v>4325746339.282418</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1501161780156968</v>
+        <v>0.1587070726324404</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03368133700370095</v>
+        <v>0.02928498669242566</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1533231162.664851</v>
+        <v>2017633496.649977</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07755593632620311</v>
+        <v>0.1059661979248852</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04783896003882668</v>
+        <v>0.04905639430706823</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2441694139.020818</v>
+        <v>3464048046.14031</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1105013290694352</v>
+        <v>0.07628642750913785</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03968527161317632</v>
+        <v>0.03282506741273009</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2461857834.370823</v>
+        <v>3927683652.093765</v>
       </c>
       <c r="F74" t="n">
-        <v>0.137319033020581</v>
+        <v>0.1213657455197953</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02418658073863022</v>
+        <v>0.02448594959091533</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2445982987.903533</v>
+        <v>1784380446.597916</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1434976312298765</v>
+        <v>0.1299438810824811</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03153522959469287</v>
+        <v>0.02858637046268285</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3411850392.087321</v>
+        <v>5173074205.564096</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0837594339512245</v>
+        <v>0.08300278301915737</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02936552550772537</v>
+        <v>0.03206585550669576</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2201698699.263612</v>
+        <v>2314075334.261926</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1262896363484833</v>
+        <v>0.1485187370622675</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01947302980646938</v>
+        <v>0.02412331818245774</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3792123039.882786</v>
+        <v>4187545122.932986</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08292053406494022</v>
+        <v>0.1252067659724607</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04550440932050104</v>
+        <v>0.03964546360063852</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1784901794.76612</v>
+        <v>1245490615.882934</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1102795868473026</v>
+        <v>0.163510022098368</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02936283837207576</v>
+        <v>0.03382403720016689</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4465163715.402487</v>
+        <v>5227365074.49013</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0996460254364431</v>
+        <v>0.08909926470918358</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03422128660549691</v>
+        <v>0.02522922253154895</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3447814213.688236</v>
+        <v>4841025504.956359</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1082979205052688</v>
+        <v>0.1026776582923511</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02488725548856443</v>
+        <v>0.02159743689829569</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3673586257.448895</v>
+        <v>4693878200.533713</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1909941499512738</v>
+        <v>0.2091379595462283</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02078416565588561</v>
+        <v>0.02494233270957629</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1537937739.492678</v>
+        <v>2364773873.554471</v>
       </c>
       <c r="F83" t="n">
-        <v>0.107958207284999</v>
+        <v>0.1027467242277109</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03321012441963943</v>
+        <v>0.03399757741217908</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2497707015.560482</v>
+        <v>1616249491.755391</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09637310554485531</v>
+        <v>0.07764412948966223</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03995899641798176</v>
+        <v>0.03819451365418339</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2990426567.458945</v>
+        <v>2952584110.65294</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1554612941099471</v>
+        <v>0.1287570414154334</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03576743859011391</v>
+        <v>0.05129708713564658</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2536520796.780468</v>
+        <v>2204105749.834215</v>
       </c>
       <c r="F86" t="n">
-        <v>0.150564063470592</v>
+        <v>0.1423805003961351</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0217398243516516</v>
+        <v>0.02268114155249071</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1364324348.477761</v>
+        <v>1060861984.529308</v>
       </c>
       <c r="F87" t="n">
-        <v>0.157357586565797</v>
+        <v>0.154803244209353</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04421515837347787</v>
+        <v>0.03061622679080732</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2378928360.232147</v>
+        <v>3107710738.900507</v>
       </c>
       <c r="F88" t="n">
-        <v>0.132104948192269</v>
+        <v>0.1544629200427772</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02824356696702495</v>
+        <v>0.02665236839088635</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3263883678.778675</v>
+        <v>2546914882.31386</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1026381900252361</v>
+        <v>0.157720013210193</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02906353467887059</v>
+        <v>0.02956908160950651</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1536494791.288641</v>
+        <v>1472120076.612132</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1050590736474373</v>
+        <v>0.1149128876043858</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03484343753907484</v>
+        <v>0.05416830372253625</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2071228211.504907</v>
+        <v>1906906055.389698</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1786107799956667</v>
+        <v>0.1912515042999495</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0517955616793877</v>
+        <v>0.0603323679681942</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2799215117.557871</v>
+        <v>2499643628.645706</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08159487272623711</v>
+        <v>0.08825362951629277</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03189256686982218</v>
+        <v>0.04284904723851045</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3830077940.114432</v>
+        <v>4659958125.253902</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1118438021318677</v>
+        <v>0.1307679540181774</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04094351682884324</v>
+        <v>0.05321143114033306</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2389969178.895533</v>
+        <v>2352949155.242662</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1221252247054148</v>
+        <v>0.1161107043035756</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02958101779129918</v>
+        <v>0.03546223945293464</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2342037058.502141</v>
+        <v>2524849099.54122</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1125302925627928</v>
+        <v>0.0871761992870522</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04599493154507798</v>
+        <v>0.03374304487429229</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1553100162.573763</v>
+        <v>1697600754.62181</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1249404727188286</v>
+        <v>0.1278047269363351</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03029949095628204</v>
+        <v>0.03601960149438436</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4632238974.51632</v>
+        <v>3852602602.530249</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1773143674583759</v>
+        <v>0.1177429802520301</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02879365478612221</v>
+        <v>0.02389115411515768</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3740113455.640992</v>
+        <v>2525521060.678275</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09427803987319036</v>
+        <v>0.08050061335822667</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02476889317943184</v>
+        <v>0.03097108728765713</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3406888438.146213</v>
+        <v>3181885417.610112</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1088797435910221</v>
+        <v>0.09052364870367455</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02231785793841679</v>
+        <v>0.03245495765244143</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3353290116.874576</v>
+        <v>3300745534.171015</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1645082627118435</v>
+        <v>0.1418599129003308</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02728889549433893</v>
+        <v>0.02663671935620876</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3177626979.289736</v>
+        <v>3361322639.61437</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1798710153534868</v>
+        <v>0.1619352897829479</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04830761454550885</v>
+        <v>0.04237199733935593</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_212.xlsx
+++ b/output/fit_clients/fit_round_212.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1719496037.967215</v>
+        <v>2381101982.565172</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08736696249959339</v>
+        <v>0.09011607982279353</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04236801849502357</v>
+        <v>0.04271637054537553</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1853757976.373724</v>
+        <v>2432614439.764355</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1698757966755279</v>
+        <v>0.1621668460809345</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03976966503218902</v>
+        <v>0.05044737853708959</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4133329241.509549</v>
+        <v>5142206136.801731</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1090320480253045</v>
+        <v>0.1467491840353543</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03008862800302955</v>
+        <v>0.02982911147529997</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>116</v>
+      </c>
+      <c r="J4" t="n">
+        <v>211</v>
+      </c>
+      <c r="K4" t="n">
+        <v>113.8277061638892</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3012384831.962767</v>
+        <v>3433690598.257521</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07576578786792021</v>
+        <v>0.09555738743753929</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03119736565134396</v>
+        <v>0.04961276481028373</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>87</v>
+      </c>
+      <c r="J5" t="n">
+        <v>212</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2658153951.52983</v>
+        <v>2221523909.257331</v>
       </c>
       <c r="F6" t="n">
-        <v>0.106118355689155</v>
+        <v>0.1043932451046818</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04299966687157588</v>
+        <v>0.03465807549369543</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2011374124.484781</v>
+        <v>2738419279.727212</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08756821641401283</v>
+        <v>0.08074374966274589</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04475613988186312</v>
+        <v>0.03772284162045682</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2430535374.719747</v>
+        <v>3710818792.939311</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1655560057807975</v>
+        <v>0.1804180730720479</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02543744982634411</v>
+        <v>0.02430578364364304</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>59</v>
+      </c>
+      <c r="J8" t="n">
+        <v>212</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1948760126.53819</v>
+        <v>1872481244.671821</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1783809770874004</v>
+        <v>0.1482482575006088</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02984644548407873</v>
+        <v>0.03505621517725785</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5128373948.68807</v>
+        <v>5274945771.035574</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1552310436960511</v>
+        <v>0.1833818758102539</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0416124981429115</v>
+        <v>0.04345070685432801</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>193</v>
+      </c>
+      <c r="J10" t="n">
+        <v>212</v>
+      </c>
+      <c r="K10" t="n">
+        <v>125.4041598210166</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3095721480.194846</v>
+        <v>2689736188.197019</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1285858693015478</v>
+        <v>0.1513350985955527</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03564713491221363</v>
+        <v>0.04808754361550842</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>89</v>
+      </c>
+      <c r="J11" t="n">
+        <v>211</v>
+      </c>
+      <c r="K11" t="n">
+        <v>47.54570771030411</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2241557792.399787</v>
+        <v>2387909670.476217</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1403774603425724</v>
+        <v>0.1934238224990338</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04054794340935473</v>
+        <v>0.0361089766982528</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4001636450.31017</v>
+        <v>5328364846.059444</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07486213140606734</v>
+        <v>0.0958297719909981</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02192171808736183</v>
+        <v>0.0294596379448145</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>106</v>
+      </c>
+      <c r="J13" t="n">
+        <v>211</v>
+      </c>
+      <c r="K13" t="n">
+        <v>115.6574959104086</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3763234062.261151</v>
+        <v>3494086571.881819</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1574539238731884</v>
+        <v>0.1741709767597981</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03336213984390466</v>
+        <v>0.0306057855793524</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>41</v>
+      </c>
+      <c r="J14" t="n">
+        <v>212</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1109775824.796798</v>
+        <v>1433871052.245982</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09915216731735302</v>
+        <v>0.08494116735451862</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03249336992982867</v>
+        <v>0.04612590916819913</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2246790916.947804</v>
+        <v>2391581457.178969</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09130693095383208</v>
+        <v>0.08581199630722897</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0385169089220896</v>
+        <v>0.04582089683720222</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3802019880.946286</v>
+        <v>3304780248.729581</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1077177843499435</v>
+        <v>0.1383668639336054</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04512857541874548</v>
+        <v>0.04242463081941065</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>102</v>
+      </c>
+      <c r="J17" t="n">
+        <v>211</v>
+      </c>
+      <c r="K17" t="n">
+        <v>61.98675760924197</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2642520240.606167</v>
+        <v>3795692229.928587</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1580570150871838</v>
+        <v>0.1216671831649291</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03313159461935626</v>
+        <v>0.02594698866196126</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>54</v>
+      </c>
+      <c r="J18" t="n">
+        <v>212</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1327169918.513209</v>
+        <v>901526977.5911665</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1803832905021641</v>
+        <v>0.1389074848879407</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02642165112714007</v>
+        <v>0.01704085038475923</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1895319105.248447</v>
+        <v>2455070207.0076</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1499211920333069</v>
+        <v>0.1211239915418001</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01950122089590849</v>
+        <v>0.02880721115256744</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2406551869.749388</v>
+        <v>2626025419.728299</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07036048016107253</v>
+        <v>0.06380554113018062</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04344847963020795</v>
+        <v>0.03743536053573294</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3850024565.393838</v>
+        <v>2619911960.955418</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1387622820452403</v>
+        <v>0.09797441110932648</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03580397232482965</v>
+        <v>0.03832575452537822</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>54</v>
+      </c>
+      <c r="J22" t="n">
+        <v>208</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>978082427.9702477</v>
+        <v>1475109805.1577</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1851437150958837</v>
+        <v>0.1436310496325484</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04481453280304482</v>
+        <v>0.03397722620791606</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1281,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4026196427.662994</v>
+        <v>2723883275.757686</v>
       </c>
       <c r="F24" t="n">
-        <v>0.13245352095212</v>
+        <v>0.1402378912246574</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02655397598723499</v>
+        <v>0.02468146296016691</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>66</v>
+      </c>
+      <c r="J24" t="n">
+        <v>211</v>
+      </c>
+      <c r="K24" t="n">
+        <v>41.69327700354134</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1134915366.535927</v>
+        <v>1269979697.165373</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1098543206352268</v>
+        <v>0.09014128765073612</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01964181860113684</v>
+        <v>0.0194800896331202</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1353,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>940005482.3973798</v>
+        <v>927137321.9457581</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09149542080675811</v>
+        <v>0.1063040686411088</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03746690509523502</v>
+        <v>0.02372372399663995</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3635353889.281657</v>
+        <v>4350688390.724393</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1580762028023502</v>
+        <v>0.1222038536761602</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02340428434634455</v>
+        <v>0.01931364657720832</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>84</v>
+      </c>
+      <c r="J27" t="n">
+        <v>211</v>
+      </c>
+      <c r="K27" t="n">
+        <v>99.70006676822818</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1425,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2555773103.303342</v>
+        <v>2603470202.079813</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1161508505086054</v>
+        <v>0.1448430626287854</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03931440690939814</v>
+        <v>0.04876128812188885</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>43</v>
+      </c>
+      <c r="J28" t="n">
+        <v>203</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3814395456.101532</v>
+        <v>5699791216.956493</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1158828836229214</v>
+        <v>0.1089647456598641</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04617317459869055</v>
+        <v>0.03640371785689122</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>201</v>
+      </c>
+      <c r="J29" t="n">
+        <v>212</v>
+      </c>
+      <c r="K29" t="n">
+        <v>130.1833527399933</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1497,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1807300630.697004</v>
+        <v>2403468493.982753</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1013431411536741</v>
+        <v>0.1165811310128833</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03182305807218245</v>
+        <v>0.03975905565823354</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1022410646.181719</v>
+        <v>1128413044.587891</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07241684281382127</v>
+        <v>0.09390223182456518</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03612004821687673</v>
+        <v>0.0437608250624584</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1567,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1628720030.40725</v>
+        <v>1572465737.082414</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1145566215048286</v>
+        <v>0.08926030906119717</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03422670873685786</v>
+        <v>0.03758679590450199</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2985410945.951824</v>
+        <v>2334524695.438762</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1790772147865647</v>
+        <v>0.1559118753979382</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05351333448914874</v>
+        <v>0.03995983255976894</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1411373137.341579</v>
+        <v>964574871.3703387</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07730176147605226</v>
+        <v>0.07715792646310979</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01756506955990611</v>
+        <v>0.02141050942681505</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1332393352.642395</v>
+        <v>1086479117.243911</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08851606054383968</v>
+        <v>0.1083969968123281</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03597603848668939</v>
+        <v>0.04344350357195124</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2852253845.089434</v>
+        <v>2521884817.382761</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1677910538207138</v>
+        <v>0.1347632265808799</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02713307706094838</v>
+        <v>0.02883474681580507</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2777848622.797183</v>
+        <v>1838049477.613049</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08765207070092845</v>
+        <v>0.1005859698810994</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04072848659058372</v>
+        <v>0.03870731651592682</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1895029234.265461</v>
+        <v>1828808618.017555</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09725567140556872</v>
+        <v>0.1177854472811876</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02805766620704517</v>
+        <v>0.02761732554550536</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1812,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1407434193.445617</v>
+        <v>1448018462.213243</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1750636748654484</v>
+        <v>0.129206330489066</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02030214631426282</v>
+        <v>0.03222803733075343</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1847,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1260297799.47145</v>
+        <v>1124545845.388081</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1395207482571365</v>
+        <v>0.1453737470244872</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05422361750865971</v>
+        <v>0.04752616695997532</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2909882623.906265</v>
+        <v>2151712132.0009</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1071761154685682</v>
+        <v>0.1157557094594532</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03186247883002612</v>
+        <v>0.04134348582690754</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1917,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2796740475.120169</v>
+        <v>3881818691.068812</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1250425731420231</v>
+        <v>0.1033685620612665</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04221992791058585</v>
+        <v>0.03790216968649527</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>83</v>
+      </c>
+      <c r="J42" t="n">
+        <v>212</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2574119653.92957</v>
+        <v>2411093923.124488</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1361350708625033</v>
+        <v>0.1512385535709741</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01598413475624335</v>
+        <v>0.01895073859601417</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2275322177.268898</v>
+        <v>1477972075.683869</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06782449650868624</v>
+        <v>0.07030445210013857</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02267115424835812</v>
+        <v>0.03019953775819233</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2022,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1708227313.535843</v>
+        <v>2513987619.510544</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1687731743125468</v>
+        <v>0.1703452520065492</v>
       </c>
       <c r="G45" t="n">
-        <v>0.054673152155147</v>
+        <v>0.04156106328946369</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2051,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5599853010.121968</v>
+        <v>4456175117.019246</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1193842844722272</v>
+        <v>0.1567179529727681</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04299668480645429</v>
+        <v>0.04683094975914513</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>121</v>
+      </c>
+      <c r="J46" t="n">
+        <v>212</v>
+      </c>
+      <c r="K46" t="n">
+        <v>117.3716395152322</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2088,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3466482599.899914</v>
+        <v>3233169954.839086</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1850855184468155</v>
+        <v>0.1471885876526493</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04144955841109643</v>
+        <v>0.03712731878607639</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>95</v>
+      </c>
+      <c r="J47" t="n">
+        <v>211</v>
+      </c>
+      <c r="K47" t="n">
+        <v>52.16335738739284</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2125,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4269623745.798504</v>
+        <v>4068129188.83456</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09862636240949983</v>
+        <v>0.1103102056698061</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03926679991790664</v>
+        <v>0.03385676103186689</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>104</v>
+      </c>
+      <c r="J48" t="n">
+        <v>212</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1991888681.346696</v>
+        <v>1657481136.2018</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1445510724574467</v>
+        <v>0.1236234568341528</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03134418716201504</v>
+        <v>0.04147702308393138</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2195,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3812159844.097396</v>
+        <v>3141969710.91397</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1288366776955063</v>
+        <v>0.1176405953245087</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03818219724663102</v>
+        <v>0.03220830564741886</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>67</v>
+      </c>
+      <c r="J50" t="n">
+        <v>207</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1361057304.690204</v>
+        <v>1198197660.081088</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1555259500294684</v>
+        <v>0.1385767537736245</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05324101910230072</v>
+        <v>0.03923292760339964</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2265,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3389870310.219624</v>
+        <v>3769317699.013509</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1006174774233313</v>
+        <v>0.123025480653356</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04257362729210758</v>
+        <v>0.05576246831779446</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>143</v>
+      </c>
+      <c r="J52" t="n">
+        <v>212</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2286328890.744642</v>
+        <v>3389429985.806949</v>
       </c>
       <c r="F53" t="n">
-        <v>0.150238251808087</v>
+        <v>0.1945298729359515</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03101312115840107</v>
+        <v>0.03318723240918406</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>28</v>
+      </c>
+      <c r="J53" t="n">
+        <v>205</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2335,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4440488096.065993</v>
+        <v>4961884834.390265</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1060730372085004</v>
+        <v>0.1346806867119112</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03983232845125768</v>
+        <v>0.04982333749599151</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>111</v>
+      </c>
+      <c r="J54" t="n">
+        <v>211</v>
+      </c>
+      <c r="K54" t="n">
+        <v>116.9547082422353</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2378,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3129135511.280183</v>
+        <v>3490320174.934346</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1535738880726376</v>
+        <v>0.1467757259439806</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02034149733418834</v>
+        <v>0.03020169290691883</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>94</v>
+      </c>
+      <c r="J55" t="n">
+        <v>212</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2413,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1735467227.377262</v>
+        <v>1553216247.507225</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1225322764639147</v>
+        <v>0.1314891189591795</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04388450542705772</v>
+        <v>0.05471173744113427</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3475380608.209321</v>
+        <v>2938253026.763225</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1200188391314013</v>
+        <v>0.1714878941221592</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02275419771084944</v>
+        <v>0.01765328629084225</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>83</v>
+      </c>
+      <c r="J57" t="n">
+        <v>210</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1353488553.530133</v>
+        <v>1894658146.82184</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1399912139043734</v>
+        <v>0.190742637594768</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03580588849987257</v>
+        <v>0.03105593528399116</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4025597992.982812</v>
+        <v>4277910087.085691</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09809716955431681</v>
+        <v>0.0825978776509191</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0401411168529725</v>
+        <v>0.03730136986924056</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>102</v>
+      </c>
+      <c r="J59" t="n">
+        <v>212</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3713551176.191206</v>
+        <v>3028675359.564416</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1311136855760748</v>
+        <v>0.1483951799749684</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02654473447277069</v>
+        <v>0.03016238804801654</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>30</v>
+      </c>
+      <c r="J60" t="n">
+        <v>210</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3083299713.981862</v>
+        <v>3390258389.20576</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1746744156683009</v>
+        <v>0.1741711533440385</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03051241314355212</v>
+        <v>0.03095733579237698</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1308190842.309828</v>
+        <v>1436484035.831947</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1455355891850759</v>
+        <v>0.1493970991463871</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03828243945567207</v>
+        <v>0.03664372450840397</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3920163877.649325</v>
+        <v>4434139209.921714</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07062273976356656</v>
+        <v>0.06869328180490587</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04190883852585293</v>
+        <v>0.04376032223631739</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>103</v>
+      </c>
+      <c r="J63" t="n">
+        <v>212</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2693,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4038930932.728026</v>
+        <v>4141575104.564489</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1813787482941479</v>
+        <v>0.1450263083922944</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03343002272743777</v>
+        <v>0.02725625496181145</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>104</v>
+      </c>
+      <c r="J64" t="n">
+        <v>212</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5088870170.031959</v>
+        <v>4547120697.167364</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1528635503946231</v>
+        <v>0.1562997530892604</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02019566311439793</v>
+        <v>0.02785202719430717</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>170</v>
+      </c>
+      <c r="J65" t="n">
+        <v>212</v>
+      </c>
+      <c r="K65" t="n">
+        <v>118.6084636799062</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4077992775.645539</v>
+        <v>5430153647.1468</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1012539415383754</v>
+        <v>0.1461087309175974</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0366013296995877</v>
+        <v>0.04660581598738367</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>104</v>
+      </c>
+      <c r="J66" t="n">
+        <v>212</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,16 +2800,25 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2113857948.286334</v>
+        <v>2987607098.644661</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09403159421461836</v>
+        <v>0.07327192039526671</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0446808706295632</v>
+        <v>0.03866500929199929</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>211</v>
+      </c>
+      <c r="K67" t="n">
+        <v>58.15772554427917</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5525504236.610884</v>
+        <v>4421910288.222485</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1334548258010442</v>
+        <v>0.1339919255184928</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05094541807686434</v>
+        <v>0.05036345741868854</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>107</v>
+      </c>
+      <c r="J68" t="n">
+        <v>211</v>
+      </c>
+      <c r="K68" t="n">
+        <v>113.5583700873819</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2423198778.328387</v>
+        <v>1707204202.756731</v>
       </c>
       <c r="F69" t="n">
-        <v>0.126690482457964</v>
+        <v>0.120394399796432</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04252010659143503</v>
+        <v>0.03926340277239094</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2542479156.183238</v>
+        <v>2993000819.828818</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1027208132975347</v>
+        <v>0.06701479633726595</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0386057392230002</v>
+        <v>0.03436658481014665</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>32</v>
+      </c>
+      <c r="J70" t="n">
+        <v>206</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4325746339.282418</v>
+        <v>4326130515.441616</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1587070726324404</v>
+        <v>0.1834882507785343</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02928498669242566</v>
+        <v>0.02673631230974829</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>162</v>
+      </c>
+      <c r="J71" t="n">
+        <v>212</v>
+      </c>
+      <c r="K71" t="n">
+        <v>117.1927048814754</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2017633496.649977</v>
+        <v>1954311969.894252</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1059661979248852</v>
+        <v>0.1019507632004678</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04905639430706823</v>
+        <v>0.05279305896988727</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3464048046.14031</v>
+        <v>2755723246.055697</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07628642750913785</v>
+        <v>0.09321475778059636</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03282506741273009</v>
+        <v>0.03818545767252265</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>12</v>
+      </c>
+      <c r="J73" t="n">
+        <v>208</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3927683652.093765</v>
+        <v>2521859905.291203</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1213657455197953</v>
+        <v>0.1801271192208907</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02448594959091533</v>
+        <v>0.02945247174183456</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>62</v>
+      </c>
+      <c r="J74" t="n">
+        <v>208</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1784380446.597916</v>
+        <v>2416516276.190347</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1299438810824811</v>
+        <v>0.1040943774332797</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02858637046268285</v>
+        <v>0.03803247382754352</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5173074205.564096</v>
+        <v>4692972741.501199</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08300278301915737</v>
+        <v>0.1152054376031489</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03206585550669576</v>
+        <v>0.02567743401188203</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>97</v>
+      </c>
+      <c r="J76" t="n">
+        <v>212</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2314075334.261926</v>
+        <v>1985596215.878902</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1485187370622675</v>
+        <v>0.1751322209329526</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02412331818245774</v>
+        <v>0.02764608773401151</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4187545122.932986</v>
+        <v>3038888937.202206</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1252067659724607</v>
+        <v>0.1209394502393958</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03964546360063852</v>
+        <v>0.05323601356919887</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>106</v>
+      </c>
+      <c r="J78" t="n">
+        <v>210</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1245490615.882934</v>
+        <v>1294429465.797776</v>
       </c>
       <c r="F79" t="n">
-        <v>0.163510022098368</v>
+        <v>0.1445847418540686</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03382403720016689</v>
+        <v>0.0262000363189811</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5227365074.49013</v>
+        <v>3742083048.23458</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08909926470918358</v>
+        <v>0.1097863953451848</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02522922253154895</v>
+        <v>0.02775910156005912</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>103</v>
+      </c>
+      <c r="J80" t="n">
+        <v>211</v>
+      </c>
+      <c r="K80" t="n">
+        <v>63.53342707263185</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4841025504.956359</v>
+        <v>5009265607.657333</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1026776582923511</v>
+        <v>0.1021672774266288</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02159743689829569</v>
+        <v>0.02452185454801647</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>97</v>
+      </c>
+      <c r="J81" t="n">
+        <v>212</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4693878200.533713</v>
+        <v>3767909624.947031</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2091379595462283</v>
+        <v>0.2147164854150969</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02494233270957629</v>
+        <v>0.02566141199548967</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>158</v>
+      </c>
+      <c r="J82" t="n">
+        <v>211</v>
+      </c>
+      <c r="K82" t="n">
+        <v>90.96623092316024</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2364773873.554471</v>
+        <v>2035511584.713811</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1027467242277109</v>
+        <v>0.1065829060306581</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03399757741217908</v>
+        <v>0.02929035546699919</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1616249491.755391</v>
+        <v>1773108144.054937</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07764412948966223</v>
+        <v>0.07956301399587137</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03819451365418339</v>
+        <v>0.03808909289783455</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2952584110.65294</v>
+        <v>2437937358.726564</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1287570414154334</v>
+        <v>0.1211508648622201</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05129708713564658</v>
+        <v>0.03768996441634017</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>30</v>
+      </c>
+      <c r="J85" t="n">
+        <v>205</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2204105749.834215</v>
+        <v>2359035591.899521</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1423805003961351</v>
+        <v>0.1353102699456267</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02268114155249071</v>
+        <v>0.02340338764776964</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1060861984.529308</v>
+        <v>931024718.4947844</v>
       </c>
       <c r="F87" t="n">
-        <v>0.154803244209353</v>
+        <v>0.1711285374517217</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03061622679080732</v>
+        <v>0.03869117777104326</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3107710738.900507</v>
+        <v>3293188593.636858</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1544629200427772</v>
+        <v>0.1560312285289337</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02665236839088635</v>
+        <v>0.03556963487234134</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>30</v>
+      </c>
+      <c r="J88" t="n">
+        <v>209</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2546914882.31386</v>
+        <v>2878234359.429241</v>
       </c>
       <c r="F89" t="n">
-        <v>0.157720013210193</v>
+        <v>0.1010334013183758</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02956908160950651</v>
+        <v>0.03676025962223919</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>14</v>
+      </c>
+      <c r="J89" t="n">
+        <v>190</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3615,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1472120076.612132</v>
+        <v>1354194067.380987</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1149128876043858</v>
+        <v>0.1306237437877404</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05416830372253625</v>
+        <v>0.04374844268675803</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1906906055.389698</v>
+        <v>1787629823.771864</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1912515042999495</v>
+        <v>0.1475792774366547</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0603323679681942</v>
+        <v>0.05616381414631311</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3685,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2499643628.645706</v>
+        <v>2898156552.056414</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08825362951629277</v>
+        <v>0.09306270332419207</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04284904723851045</v>
+        <v>0.03086002110552077</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4659958125.253902</v>
+        <v>4556665961.919665</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1307679540181774</v>
+        <v>0.117250849194383</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05321143114033306</v>
+        <v>0.03351954980986649</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>95</v>
+      </c>
+      <c r="J93" t="n">
+        <v>211</v>
+      </c>
+      <c r="K93" t="n">
+        <v>110.842141557071</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2352949155.242662</v>
+        <v>1865916308.083393</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1161107043035756</v>
+        <v>0.1139669826437159</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03546223945293464</v>
+        <v>0.03786229808351042</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2524849099.54122</v>
+        <v>3003606898.834907</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0871761992870522</v>
+        <v>0.08836522674640315</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03374304487429229</v>
+        <v>0.03505522016929452</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1697600754.62181</v>
+        <v>2145994305.03826</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1278047269363351</v>
+        <v>0.1156317423111983</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03601960149438436</v>
+        <v>0.03871540028505217</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3852602602.530249</v>
+        <v>4530204560.552917</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1177429802520301</v>
+        <v>0.1271650368634754</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02389115411515768</v>
+        <v>0.02068401513749008</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>102</v>
+      </c>
+      <c r="J97" t="n">
+        <v>211</v>
+      </c>
+      <c r="K97" t="n">
+        <v>114.7486081605017</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2525521060.678275</v>
+        <v>2696324178.326308</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08050061335822667</v>
+        <v>0.1217901276356438</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03097108728765713</v>
+        <v>0.03187118912771084</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>53</v>
+      </c>
+      <c r="J98" t="n">
+        <v>209</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,22 +3928,31 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3181885417.610112</v>
+        <v>2625324202.624081</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09052364870367455</v>
+        <v>0.1474590856935658</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03245495765244143</v>
+        <v>0.02572667309697883</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="n">
+        <v>43.94093468561214</v>
       </c>
     </row>
     <row r="100">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3300745534.171015</v>
+        <v>4788361764.96526</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1418599129003308</v>
+        <v>0.1536611764672311</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02663671935620876</v>
+        <v>0.02746068235964686</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>87</v>
+      </c>
+      <c r="J100" t="n">
+        <v>212</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3361322639.61437</v>
+        <v>3381575666.516137</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1619352897829479</v>
+        <v>0.1833976988254694</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04237199733935593</v>
+        <v>0.03935017685390613</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
